--- a/ig/contenu_narratif_update/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/contenu_narratif_update/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-03T10:55:14+00:00</t>
+    <t>2023-07-05T15:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif_update/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/contenu_narratif_update/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-05T15:16:34+00:00</t>
+    <t>2023-07-06T11:16:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif_update/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/contenu_narratif_update/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T11:16:29+00:00</t>
+    <t>2023-07-08T08:20:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif_update/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/contenu_narratif_update/StructureDefinition-eclaire-researchstudy.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-08T08:20:11+00:00</t>
+    <t>2023-07-08T08:20:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
